--- a/VersionRecords/Version 5.0.5/版本Bug和特性计划及评审表v5.0.5_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.5/版本Bug和特性计划及评审表v5.0.5_捷豹组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>No</t>
   </si>
@@ -229,16 +229,35 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>partnerpc、renter</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>王祥毅、武孟华</t>
     <rPh sb="0" eb="1">
       <t>w'x'y</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>w'm'h</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>子账号收不到确认租约消息</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner、partnerpc、renter</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <rPh sb="0" eb="1">
+      <t>c'b</t>
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -431,7 +450,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="78">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,6 +679,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -780,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="78">
+  <cellStyles count="80">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -823,6 +848,7 @@
     <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
@@ -859,6 +885,7 @@
     <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1295,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1515,7 +1542,7 @@
       <c r="S4" s="35"/>
       <c r="T4" s="36"/>
     </row>
-    <row r="5" spans="1:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -1526,7 +1553,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>30</v>
@@ -1542,7 +1569,7 @@
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>32</v>
@@ -1560,18 +1587,40 @@
       <c r="T5" s="38"/>
     </row>
     <row r="6" spans="1:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="28"/>
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="19">
+        <v>42674</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="19">
+        <v>42674</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="M6" s="28"/>
       <c r="N6" s="19"/>
       <c r="O6" s="28"/>

--- a/VersionRecords/Version 5.0.5/版本Bug和特性计划及评审表v5.0.5_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.5/版本Bug和特性计划及评审表v5.0.5_捷豹组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>No</t>
   </si>
@@ -261,6 +261,43 @@
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>续租&amp;续租公众号</t>
+    <rPh sb="0" eb="1">
+      <t>xu'z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xu'z</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong'zhong'h</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner、partnerpc、renter、renterembed、renterembed-fe、payapi</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超、谷丽娜</t>
+    <rPh sb="0" eb="1">
+      <t>s'c</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>g'l'n</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>error日志处理</t>
+    <rPh sb="5" eb="6">
+      <t>ri'zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chu'li</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -450,7 +487,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="80">
+  <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,6 +722,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -805,7 +890,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="80">
+  <cellStyles count="96">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -849,6 +934,14 @@
     <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
@@ -886,6 +979,14 @@
     <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1322,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1630,19 +1731,41 @@
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
     </row>
-    <row r="7" spans="1:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="28"/>
+    <row r="7" spans="1:20" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="19">
+        <v>42674</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="19">
+        <v>42674</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>50</v>
+      </c>
       <c r="M7" s="28"/>
       <c r="N7" s="19"/>
       <c r="O7" s="28"/>
@@ -1653,18 +1776,40 @@
       <c r="T7" s="38"/>
     </row>
     <row r="8" spans="1:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="28"/>
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="19">
+        <v>42675</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="19">
+        <v>42675</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>50</v>
+      </c>
       <c r="M8" s="28"/>
       <c r="N8" s="19"/>
       <c r="O8" s="28"/>

--- a/VersionRecords/Version 5.0.5/版本Bug和特性计划及评审表v5.0.5_捷豹组.xlsx
+++ b/VersionRecords/Version 5.0.5/版本Bug和特性计划及评审表v5.0.5_捷豹组.xlsx
@@ -487,7 +487,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="96">
+  <cellStyleXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,6 +770,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -890,7 +896,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="96">
+  <cellStyles count="98">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -942,6 +948,7 @@
     <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
@@ -987,6 +994,7 @@
     <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1424,7 +1432,7 @@
   <dimension ref="A1:T190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1808,7 +1816,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="28" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M8" s="28"/>
       <c r="N8" s="19"/>
